--- a/dokumentacja/MoSCoW.xlsx
+++ b/dokumentacja/MoSCoW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chleb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chleb\Desktop\react-panel-sprzedawcy\dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C18E7DF-C7F1-48DE-984F-35FB824B0CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBA2145-9C6F-43DE-B3DE-9CC5C71FEA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3610" yWindow="3230" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="3900" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +534,7 @@
     <col min="3" max="3" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -578,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -589,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -600,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -611,33 +611,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(C2:C9)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -648,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -659,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -670,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -681,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -692,44 +688,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4">
-        <f>SUM(C10:C17)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -740,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -750,12 +742,8 @@
       <c r="C19" s="6">
         <v>6</v>
       </c>
-      <c r="D19" s="6">
-        <f>SUM(C18:C19)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
@@ -766,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
@@ -776,12 +764,8 @@
       <c r="C21" s="8">
         <v>9</v>
       </c>
-      <c r="D21" s="8">
-        <f>SUM(C20:C21)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -793,7 +777,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C22 D21 D19 D17 D9" formulaRange="1"/>
+    <ignoredError sqref="C22" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dokumentacja/MoSCoW.xlsx
+++ b/dokumentacja/MoSCoW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chleb\Desktop\react-panel-sprzedawcy\dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBA2145-9C6F-43DE-B3DE-9CC5C71FEA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5C926-52B6-4652-BBDE-260EE27BE600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5085" yWindow="3900" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
